--- a/pred_ohlcv/54_21/2020-01-20 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 AOA ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>4906488.607707594</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1642207.537807594</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1642477.537807594</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2478752.844707593</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-5906413.707792407</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-5918445.268692407</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-5918445.268692407</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-6213396.125392407</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-6213396.125392407</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-6088171.145292407</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-3685559.341392407</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-7049547.341392407</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-7049547.341392407</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-6961412.058792408</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-6961412.058792408</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-17502588.25399241</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-20706437.25399241</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-18393591.25399241</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-18383591.25399241</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-18404958.77539241</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-18404958.77539241</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-18371345.55649241</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-18371615.55649241</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-18394230.69689241</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-18409856.91829241</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-17798513.29029241</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-17798513.29029241</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-17772040.19499241</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-17887412.95439241</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-17887412.95439241</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-17887412.95439241</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-17887146.95439241</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-17979879.36869241</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-17979879.36869241</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-15095931.36869241</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-11125093.36869241</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-11124828.36869241</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-11125093.36869241</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-16412069.73529241</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-14962431.73529241</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-14962431.73529241</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-13454892.18519241</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-14530304.90539241</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-19427278.79109241</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-15811190.18479241</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-19359227.18479241</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-21909488.61069242</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-18674169.53669242</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-25467332.73849242</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-20366742.77039242</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-20366742.77039242</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-24767396.77039242</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-23291743.77039242</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-24074072.77039242</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-22547930.77039242</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-23775413.77039242</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-26284066.57879242</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-25753760.23409242</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-24381174.23409242</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-30545046.62679242</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-33249758.62679242</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-37894125.34565842</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-39242360.33465842</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-39797927.21855842</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-39960802.89475843</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-52081302.09165843</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-51153733.67195843</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-51380556.69415843</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-51990367.29894399</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-53666723.04101136</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-50488305.90801136</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-53361413.58171137</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-53400025.59561136</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-53716315.41081136</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-56143300.11261136</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-60143844.16391136</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-60711092.74721136</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-60710536.74721136</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-60710536.74721136</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-60710853.12301136</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-60697747.43081136</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 AOA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>51670.77350759367</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2403854.773507594</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1890146.536207594</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1745571.607707594</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4906488.607707594</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1550388.607707594</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1550388.607707594</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1642207.537807594</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1642477.537807594</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>965783.5378075936</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-5906413.707792407</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-5918445.268692407</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-5918445.268692407</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-6213396.125392407</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-6213396.125392407</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-6088171.145292407</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-3685559.341392407</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-7049547.341392407</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-6961412.058792408</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-6961412.058792408</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-8199554.058792408</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-10868641.54739241</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-13680085.54739241</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-17255026.54739241</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-17763607.25399241</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-17502588.25399241</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-20706437.25399241</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-17777068.25399241</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-18383591.25399241</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-18404958.77539241</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-18404958.77539241</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-18371345.55649241</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-18371615.55649241</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-18394230.69689241</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-18409856.91829241</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-17798513.29029241</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-17798513.29029241</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-17772040.19499241</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-17887412.95439241</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-17887412.95439241</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-17887412.95439241</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-17887146.95439241</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-17979879.36869241</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-17979879.36869241</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-15095931.36869241</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-11125093.36869241</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-11124828.36869241</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-11125093.36869241</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-16412069.73529241</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-14962431.73529241</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-14962431.73529241</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-13454892.18519241</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-14530304.90539241</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-14530304.90539241</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-14840734.78319241</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-16633863.18479241</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-16633863.18479241</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-16633323.18479241</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-15811190.18479241</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-17398982.21479242</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-18215536.85399241</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-21853111.85399241</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-21909488.61069242</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-21970833.53669242</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-18674169.53669242</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-22965987.16429242</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-21174518.92879242</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-22660828.73849242</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-20366742.77039242</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-18712317.77039242</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-21698678.77039242</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-24767396.77039242</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-23291743.77039242</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-23291743.77039242</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-23291743.77039242</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-22547930.77039242</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-23775413.77039242</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-26193635.77039242</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-26280066.57879242</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-26284066.57879242</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-25753760.23409242</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-24381174.23409242</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-27621136.23409242</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-27621136.23409242</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-28685308.62679242</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-30545046.62679242</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-30545046.62679242</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-29706001.62679242</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-33249758.62679242</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-33249488.62679242</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-34918758.62679242</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-38182291.62679242</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-38855289.62679242</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-32578666.62679242</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-33720100.62679242</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-35804338.62679242</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-35939314.74939242</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-37894125.34565842</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-39242360.33465842</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-39797927.21855842</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-39960802.89475843</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-52081302.09165843</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-51153733.67195843</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-51380556.69415843</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-51780954.52991136</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-53361413.58171137</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-53400025.59561136</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-53716315.41081136</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-54392576.07851136</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-56143300.11261136</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-60143844.16391136</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-60711092.74721136</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-60710536.74721136</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-60710536.74721136</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-60710853.12301136</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-60697747.43081136</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
